--- a/Colecciones/Kaladesh Promos (PKLD).xlsx
+++ b/Colecciones/Kaladesh Promos (PKLD).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,42 +437,581 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Kaladesh</t>
+          <t>Kaladesh Promos (PKLD)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Chandra, Flamecaller</t>
+          <t>Aetherflux Reservoir</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Gideon, Ally of Zendikar</t>
+          <t>Aethersquall Ancient</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Jace, Unraveler of Secrets</t>
+          <t>Aetherstorm Roc</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Liliana, the Last Hope</t>
+          <t>Aetherworks Marvel</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Nissa, Voice of Zendikar</t>
+          <t>Angel of Invention</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Animation Module</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Architect of the Untamed</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Authority of the Consuls</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Authority of the Consuls</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Blooming Marsh</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Bomat Courier</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Botanical Sanctum</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Bristling Hydra</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Captured by the Consulate</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Cataclysmic Gearhulk</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chandra, Torch of Defiance</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chief of the Foundry</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Combustible Gearhulk</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Combustible Gearhulk</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Concealed Courtyard</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Confiscation Coup</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Cultivator of Blades</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Cultivator of Blades</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Cultivator's Caravan</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Deadlock Trap</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Demon of Dark Schemes</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Depala, Pilot Exemplar</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Dovin Baan</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Dubious Challenge</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Dynavolt Tower</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Electrostatic Pummeler</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Eliminate the Competition</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Essence Extraction</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Fateful Showdown</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fleetwheel Cruiser</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Fumigate</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Fumigate</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Ghirapur Orrery</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Ghirapur Orrery</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Gonti, Lord of Luxury</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Gonti, Lord of Luxury</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Insidious Will</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Inspiring Vantage</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Inventors' Fair</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Kambal, Consul of Allocation</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Key to the City</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Lathnu Hellion</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Lost Legacy</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Madcap Experiment</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Marionette Master</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Master Trinketeer</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Metallurgic Summonings</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Metalwork Colossus</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Midnight Oil</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Multiform Wonder</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Nissa, Vital Force</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Nissa, Vital Force</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Noxious Gearhulk</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Noxious Gearhulk</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Oviya Pashiri, Sage Lifecrafter</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Padeem, Consul of Innovation</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Padeem, Consul of Innovation</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Panharmonicon</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Paradoxical Outcome</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Pia Nalaar</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Rashmi, Eternities Crafter</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Rashmi, Eternities Crafter</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Saheeli Rai</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Saheeli's Artistry</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Saheeli's Artistry</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Scrapheap Scrounger</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Skyship Stalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Skyship Stalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Skysovereign, Consul Flagship</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Smuggler's Copter</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Spirebluff Canal</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Syndicate Trafficker</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Territorial Gorger</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Toolcraft Exemplar</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Torrential Gearhulk</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Verdurous Gearhulk</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Wildest Dreams</t>
         </is>
       </c>
     </row>
